--- a/comparison_spreadsheets/all_AC_comparison.xlsx
+++ b/comparison_spreadsheets/all_AC_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\keeran\map-synchronization\comparison_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E6CDA-492A-4C4B-875B-4881E10C3A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFC05AA-7632-4783-9FD2-70201CB8CB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="10080" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="10080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Present in all maps" sheetId="1" r:id="rId1"/>
@@ -4703,9 +4703,6 @@
     <t>ILX:1793560</t>
   </si>
   <si>
-    <t>Duplicate term?? With bolser_13</t>
-  </si>
-  <si>
     <t>UBERON:000115</t>
   </si>
   <si>
@@ -4716,6 +4713,9 @@
   </si>
   <si>
     <t>laminae of gray matter of spinal cord</t>
+  </si>
+  <si>
+    <t>Duplicate label with different term?? With bolser_13</t>
   </si>
 </sst>
 </file>
@@ -5144,8 +5144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C399"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B103" sqref="A103:B103"/>
+    <sheetView topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10574,8 +10574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="F30:H32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11734,8 +11734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11787,7 +11787,7 @@
         <v>1552</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -12088,7 +12088,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>1420</v>
@@ -12295,7 +12295,7 @@
         <v>1323</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>1325</v>
@@ -12331,7 +12331,7 @@
         <v>1186</v>
       </c>
       <c r="K20" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="L20" t="s">
         <v>1532</v>
@@ -12497,7 +12497,7 @@
         <v>1323</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>1325</v>
@@ -12617,7 +12617,7 @@
         <v>1465</v>
       </c>
       <c r="I33" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="L33" t="s">
         <v>1532</v>
@@ -12915,7 +12915,7 @@
         <v>1323</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>1325</v>
@@ -12947,7 +12947,7 @@
         <v>1323</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>1325</v>
@@ -13164,7 +13164,7 @@
         <v>1323</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>1325</v>
